--- a/public/data_colegios.xlsx
+++ b/public/data_colegios.xlsx
@@ -37,7 +37,7 @@
     <t xml:space="preserve">PRINCIPITO</t>
   </si>
   <si>
-    <t xml:space="preserve">SAN VICENTE DE LA BARQUERA </t>
+    <t xml:space="preserve">SAN VICENTE DE LA BARQUERA</t>
   </si>
   <si>
     <t xml:space="preserve">SAN AGUSTIN</t>
@@ -82,6 +82,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -266,13 +267,14 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="39.22"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.62"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
